--- a/output/Loans Data Lite_recreated.xlsx
+++ b/output/Loans Data Lite_recreated.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,14 +27,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,10 +51,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,9 +80,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
